--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lamc2</t>
   </si>
   <si>
     <t>Itga3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H2">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I2">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J2">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N2">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O2">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P2">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q2">
-        <v>19.59044822340833</v>
+        <v>24.73896598566612</v>
       </c>
       <c r="R2">
-        <v>176.314034010675</v>
+        <v>222.650693870995</v>
       </c>
       <c r="S2">
-        <v>0.1648794350039867</v>
+        <v>0.2049103886661781</v>
       </c>
       <c r="T2">
-        <v>0.1648794350039867</v>
+        <v>0.2049103886661781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H3">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I3">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J3">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P3">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q3">
-        <v>1.240728263775</v>
+        <v>1.585047321039</v>
       </c>
       <c r="R3">
-        <v>11.166554373975</v>
+        <v>14.265425889351</v>
       </c>
       <c r="S3">
-        <v>0.01044236317575731</v>
+        <v>0.01312878892337588</v>
       </c>
       <c r="T3">
-        <v>0.01044236317575731</v>
+        <v>0.01312878892337588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H4">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I4">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J4">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N4">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P4">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q4">
-        <v>0.1105007067083333</v>
+        <v>0.2743650783380001</v>
       </c>
       <c r="R4">
-        <v>0.9945063603749998</v>
+        <v>2.469285705042</v>
       </c>
       <c r="S4">
-        <v>0.0009300090473601967</v>
+        <v>0.002272538588364618</v>
       </c>
       <c r="T4">
-        <v>0.0009300090473601968</v>
+        <v>0.002272538588364618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H5">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I5">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J5">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N5">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P5">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q5">
-        <v>5.695386022058334</v>
+        <v>4.296539312865224</v>
       </c>
       <c r="R5">
-        <v>51.258474198525</v>
+        <v>38.66885381578701</v>
       </c>
       <c r="S5">
-        <v>0.04793417785737655</v>
+        <v>0.03558780674296728</v>
       </c>
       <c r="T5">
-        <v>0.04793417785737655</v>
+        <v>0.03558780674296728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H6">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I6">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J6">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N6">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O6">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P6">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q6">
-        <v>0.010917258825</v>
+        <v>0.1812272132623334</v>
       </c>
       <c r="R6">
-        <v>0.098255329425</v>
+        <v>1.631044919361</v>
       </c>
       <c r="S6">
-        <v>9.18831180548211E-05</v>
+        <v>0.001501086938232968</v>
       </c>
       <c r="T6">
-        <v>9.188311805482109E-05</v>
+        <v>0.001501086938232968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>11.725855</v>
       </c>
       <c r="I7">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J7">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N7">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O7">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P7">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q7">
-        <v>61.20952463816723</v>
+        <v>60.50491019398056</v>
       </c>
       <c r="R7">
-        <v>550.8857217435051</v>
+        <v>544.5441917458251</v>
       </c>
       <c r="S7">
-        <v>0.5151588020913482</v>
+        <v>0.5011561385081443</v>
       </c>
       <c r="T7">
-        <v>0.5151588020913482</v>
+        <v>0.5011561385081443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>11.725855</v>
       </c>
       <c r="I8">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J8">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P8">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q8">
         <v>3.876602840565</v>
@@ -948,10 +948,10 @@
         <v>34.889425565085</v>
       </c>
       <c r="S8">
-        <v>0.03262672087938601</v>
+        <v>0.03210951481257698</v>
       </c>
       <c r="T8">
-        <v>0.03262672087938601</v>
+        <v>0.03210951481257698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>11.725855</v>
       </c>
       <c r="I9">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J9">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N9">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P9">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q9">
-        <v>0.3452547717472222</v>
+        <v>0.67102377823</v>
       </c>
       <c r="R9">
-        <v>3.107292945725</v>
+        <v>6.039214004070001</v>
       </c>
       <c r="S9">
-        <v>0.002905773826557632</v>
+        <v>0.005558023050802717</v>
       </c>
       <c r="T9">
-        <v>0.002905773826557632</v>
+        <v>0.005558023050802717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>11.725855</v>
       </c>
       <c r="I10">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J10">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N10">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P10">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q10">
-        <v>17.79499208315723</v>
+        <v>10.50818879901611</v>
       </c>
       <c r="R10">
-        <v>160.154928748415</v>
+        <v>94.57369919114502</v>
       </c>
       <c r="S10">
-        <v>0.1497683058147467</v>
+        <v>0.08703828010562641</v>
       </c>
       <c r="T10">
-        <v>0.1497683058147467</v>
+        <v>0.08703828010562639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>11.725855</v>
       </c>
       <c r="I11">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J11">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N11">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O11">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P11">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q11">
-        <v>0.034110512195</v>
+        <v>0.4432334103816667</v>
       </c>
       <c r="R11">
-        <v>0.306994609755</v>
+        <v>3.989100693435001</v>
       </c>
       <c r="S11">
-        <v>0.0002870849055759746</v>
+        <v>0.00367125814570287</v>
       </c>
       <c r="T11">
-        <v>0.0002870849055759746</v>
+        <v>0.00367125814570287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H12">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I12">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J12">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N12">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O12">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P12">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q12">
-        <v>0.12919618525</v>
+        <v>2.359601998107222</v>
       </c>
       <c r="R12">
-        <v>1.16276566725</v>
+        <v>21.236417982965</v>
       </c>
       <c r="S12">
-        <v>0.001087356133242384</v>
+        <v>0.01954434808673038</v>
       </c>
       <c r="T12">
-        <v>0.001087356133242383</v>
+        <v>0.01954434808673038</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H13">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I13">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J13">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P13">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q13">
-        <v>0.008182424250000001</v>
+        <v>0.151181776473</v>
       </c>
       <c r="R13">
-        <v>0.07364181825</v>
+        <v>1.360635988257</v>
       </c>
       <c r="S13">
-        <v>6.886588157237181E-05</v>
+        <v>0.001252223580980504</v>
       </c>
       <c r="T13">
-        <v>6.88658815723718E-05</v>
+        <v>0.001252223580980503</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H14">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I14">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J14">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N14">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P14">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q14">
-        <v>0.00072873625</v>
+        <v>0.026168934766</v>
       </c>
       <c r="R14">
-        <v>0.00655862625</v>
+        <v>0.235520412894</v>
       </c>
       <c r="S14">
-        <v>6.13327575748646E-06</v>
+        <v>0.0002167546774989649</v>
       </c>
       <c r="T14">
-        <v>6.13327575748646E-06</v>
+        <v>0.0002167546774989649</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H15">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I15">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J15">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N15">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P15">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q15">
-        <v>0.03756025075000001</v>
+        <v>0.4098038193454445</v>
       </c>
       <c r="R15">
-        <v>0.33804225675</v>
+        <v>3.688234374109001</v>
       </c>
       <c r="S15">
-        <v>0.0003161190010378757</v>
+        <v>0.003394364176239771</v>
       </c>
       <c r="T15">
-        <v>0.0003161190010378757</v>
+        <v>0.00339436417623977</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H16">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I16">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J16">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N16">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O16">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P16">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q16">
-        <v>7.199775000000001E-05</v>
+        <v>0.01728544736966667</v>
       </c>
       <c r="R16">
-        <v>0.0006479797500000001</v>
+        <v>0.155569026327</v>
       </c>
       <c r="S16">
-        <v>6.059559335336631E-07</v>
+        <v>0.0001431736371212684</v>
       </c>
       <c r="T16">
-        <v>6.05955933533663E-07</v>
+        <v>0.0001431736371212684</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H17">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I17">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J17">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.66014366666667</v>
+        <v>15.47987166666667</v>
       </c>
       <c r="N17">
-        <v>46.980431</v>
+        <v>46.439615</v>
       </c>
       <c r="O17">
-        <v>0.735156956526318</v>
+        <v>0.7960757698994193</v>
       </c>
       <c r="P17">
-        <v>0.7351569565263179</v>
+        <v>0.7960757698994194</v>
       </c>
       <c r="Q17">
-        <v>6.41983413576689</v>
+        <v>8.489491859262223</v>
       </c>
       <c r="R17">
-        <v>57.77850722190201</v>
+        <v>76.40542673336</v>
       </c>
       <c r="S17">
-        <v>0.05403136329774058</v>
+        <v>0.07031761462737375</v>
       </c>
       <c r="T17">
-        <v>0.05403136329774059</v>
+        <v>0.07031761462737374</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H18">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I18">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J18">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.975427</v>
       </c>
       <c r="O18">
-        <v>0.04655993593771484</v>
+        <v>0.05100527512565552</v>
       </c>
       <c r="P18">
-        <v>0.04655993593771483</v>
+        <v>0.05100527512565553</v>
       </c>
       <c r="Q18">
-        <v>0.4065894547260001</v>
+        <v>0.5439292141919999</v>
       </c>
       <c r="R18">
-        <v>3.659305092534</v>
+        <v>4.895362927728</v>
       </c>
       <c r="S18">
-        <v>0.003421986000999147</v>
+        <v>0.004505311448811166</v>
       </c>
       <c r="T18">
-        <v>0.003421986000999147</v>
+        <v>0.004505311448811166</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H19">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I19">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J19">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.08833166666666666</v>
+        <v>0.171678</v>
       </c>
       <c r="N19">
-        <v>0.264995</v>
+        <v>0.515034</v>
       </c>
       <c r="O19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496623</v>
       </c>
       <c r="P19">
-        <v>0.004146682215297079</v>
+        <v>0.008828800326496624</v>
       </c>
       <c r="Q19">
-        <v>0.03621133119888889</v>
+        <v>0.09415187766399999</v>
       </c>
       <c r="R19">
-        <v>0.32590198079</v>
+        <v>0.847366898976</v>
       </c>
       <c r="S19">
-        <v>0.0003047660656217641</v>
+        <v>0.0007798506152989168</v>
       </c>
       <c r="T19">
-        <v>0.0003047660656217642</v>
+        <v>0.0007798506152989168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H20">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I20">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J20">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.552757666666667</v>
+        <v>2.688466333333334</v>
       </c>
       <c r="N20">
-        <v>13.658273</v>
+        <v>8.065399000000001</v>
       </c>
       <c r="O20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="P20">
-        <v>0.2137267410357641</v>
+        <v>0.1382584398787761</v>
       </c>
       <c r="Q20">
-        <v>1.86639086476289</v>
+        <v>1.474412291148445</v>
       </c>
       <c r="R20">
-        <v>16.797517782866</v>
+        <v>13.269710620336</v>
       </c>
       <c r="S20">
-        <v>0.01570813836260296</v>
+        <v>0.01221241000163342</v>
       </c>
       <c r="T20">
-        <v>0.01570813836260296</v>
+        <v>0.01221241000163342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H21">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I21">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J21">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.008727</v>
+        <v>0.113399</v>
       </c>
       <c r="N21">
-        <v>0.026181</v>
+        <v>0.340197</v>
       </c>
       <c r="O21">
-        <v>0.0004096842849061034</v>
+        <v>0.005831714769652435</v>
       </c>
       <c r="P21">
-        <v>0.0004096842849061033</v>
+        <v>0.005831714769652436</v>
       </c>
       <c r="Q21">
-        <v>0.003577610378000001</v>
+        <v>0.06219043077866667</v>
       </c>
       <c r="R21">
-        <v>0.032198493402</v>
+        <v>0.559713877008</v>
       </c>
       <c r="S21">
-        <v>3.011030534177403E-05</v>
+        <v>0.0005151171374566449</v>
       </c>
       <c r="T21">
-        <v>3.011030534177403E-05</v>
+        <v>0.0005151171374566449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.003446</v>
+      </c>
+      <c r="I22">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J22">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.47987166666667</v>
+      </c>
+      <c r="N22">
+        <v>46.439615</v>
+      </c>
+      <c r="O22">
+        <v>0.7960757698994193</v>
+      </c>
+      <c r="P22">
+        <v>0.7960757698994194</v>
+      </c>
+      <c r="Q22">
+        <v>0.01778121258777778</v>
+      </c>
+      <c r="R22">
+        <v>0.16003091329</v>
+      </c>
+      <c r="S22">
+        <v>0.0001472800109927221</v>
+      </c>
+      <c r="T22">
+        <v>0.0001472800109927221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.003446</v>
+      </c>
+      <c r="I23">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J23">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.975427</v>
+      </c>
+      <c r="O23">
+        <v>0.05100527512565552</v>
+      </c>
+      <c r="P23">
+        <v>0.05100527512565553</v>
+      </c>
+      <c r="Q23">
+        <v>0.001139257938</v>
+      </c>
+      <c r="R23">
+        <v>0.010253321442</v>
+      </c>
+      <c r="S23">
+        <v>9.436359910994998E-06</v>
+      </c>
+      <c r="T23">
+        <v>9.436359910995E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.003446</v>
+      </c>
+      <c r="I24">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J24">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.171678</v>
+      </c>
+      <c r="N24">
+        <v>0.515034</v>
+      </c>
+      <c r="O24">
+        <v>0.008828800326496623</v>
+      </c>
+      <c r="P24">
+        <v>0.008828800326496624</v>
+      </c>
+      <c r="Q24">
+        <v>0.000197200796</v>
+      </c>
+      <c r="R24">
+        <v>0.001774807164</v>
+      </c>
+      <c r="S24">
+        <v>1.63339453140655E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.633394531406551E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.003446</v>
+      </c>
+      <c r="I25">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J25">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.688466333333334</v>
+      </c>
+      <c r="N25">
+        <v>8.065399000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.1382584398787761</v>
+      </c>
+      <c r="P25">
+        <v>0.1382584398787761</v>
+      </c>
+      <c r="Q25">
+        <v>0.003088151661555556</v>
+      </c>
+      <c r="R25">
+        <v>0.027793364954</v>
+      </c>
+      <c r="S25">
+        <v>2.557885230919097E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.557885230919097E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.003446</v>
+      </c>
+      <c r="I26">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J26">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.113399</v>
+      </c>
+      <c r="N26">
+        <v>0.340197</v>
+      </c>
+      <c r="O26">
+        <v>0.005831714769652435</v>
+      </c>
+      <c r="P26">
+        <v>0.005831714769652436</v>
+      </c>
+      <c r="Q26">
+        <v>0.0001302576513333333</v>
+      </c>
+      <c r="R26">
+        <v>0.001172318862</v>
+      </c>
+      <c r="S26">
+        <v>1.078911138683882E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.078911138683882E-06</v>
       </c>
     </row>
   </sheetData>
